--- a/datasets/produtos.xlsx
+++ b/datasets/produtos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,86 @@
         <v>600</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iPhone 13</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monitor LG Ultrawide</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Teclado Mecânico HyperX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mouse Gamer Logitech</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Câmera Canon EOS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
